--- a/cases/story_1/measurements.xlsx
+++ b/cases/story_1/measurements.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Julia\dev\HetaSimulator\cases\story_1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\HetaSimulator.jl\cases\story_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75EED362-6453-49EC-A2ED-8ED4675F656A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6680"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="measurements" sheetId="1" r:id="rId1"/>
@@ -30,16 +31,7 @@
     <t>scope</t>
   </si>
   <si>
-    <t>parameters.mean</t>
-  </si>
-  <si>
-    <t>parameters.sigma</t>
-  </si>
-  <si>
     <t>condition</t>
-  </si>
-  <si>
-    <t>distribution</t>
   </si>
   <si>
     <t>ode_</t>
@@ -62,11 +54,20 @@
   <si>
     <t>c</t>
   </si>
+  <si>
+    <t>prob.type</t>
+  </si>
+  <si>
+    <t>prob.mean</t>
+  </si>
+  <si>
+    <t>prob.sigma</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -548,48 +549,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="20% — акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% — акцент2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% — акцент3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% — акцент4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% — акцент5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% — акцент6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% — акцент1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% — акцент2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% — акцент3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% — акцент4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% — акцент5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% — акцент6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% — акцент1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% — акцент2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% — акцент3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% — акцент4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% — акцент5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% — акцент6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Акцент1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Акцент2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Акцент3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Акцент4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Акцент5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Акцент6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Ввод " xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Вывод" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Вычисление" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Заголовок 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Заголовок 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Заголовок 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Заголовок 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Итог" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Контрольная ячейка" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Название" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Нейтральный" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Плохой" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Пояснение" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Примечание" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Связанная ячейка" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Текст предупреждения" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Хороший" xfId="6" builtinId="26" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -866,14 +867,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="18.44140625" customWidth="1"/>
+    <col min="5" max="5" width="21.77734375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -884,19 +891,19 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
       <c r="G1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -904,22 +911,22 @@
         <v>8.4615393339999994</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>4</v>
       </c>
@@ -927,22 +934,22 @@
         <v>7.3333338120000002</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E3">
         <v>1.2</v>
       </c>
       <c r="F3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>6</v>
       </c>
@@ -950,22 +957,22 @@
         <v>6.4705915669999996</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E4">
         <v>2.2000000000000002</v>
       </c>
       <c r="F4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>6</v>
       </c>
@@ -973,7 +980,7 @@
         <v>6.5705915670000001</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D5">
         <v>7</v>
@@ -982,13 +989,13 @@
         <v>1.03</v>
       </c>
       <c r="F5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>8</v>
       </c>
@@ -996,22 +1003,22 @@
         <v>5.7894777340000001</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>10</v>
       </c>
@@ -1019,22 +1026,22 @@
         <v>5.2380919659999998</v>
       </c>
       <c r="C7" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>12</v>
       </c>
@@ -1042,22 +1049,22 @@
         <v>4.7826210590000002</v>
       </c>
       <c r="C8" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E8">
         <v>3.7</v>
       </c>
       <c r="F8" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>14</v>
       </c>
@@ -1065,7 +1072,7 @@
         <v>4.400001348</v>
       </c>
       <c r="C9" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D9">
         <v>4.7</v>
@@ -1074,13 +1081,13 @@
         <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>16</v>
       </c>
@@ -1088,22 +1095,22 @@
         <v>4.0740805680000003</v>
       </c>
       <c r="C10" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>16</v>
       </c>
@@ -1111,7 +1118,7 @@
         <v>4.1740805679999999</v>
       </c>
       <c r="C11" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D11">
         <v>5</v>
@@ -1120,13 +1127,13 @@
         <v>4.5</v>
       </c>
       <c r="F11" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>16</v>
       </c>
@@ -1134,22 +1141,22 @@
         <v>4.004080568</v>
       </c>
       <c r="C12" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E12">
         <v>1.004</v>
       </c>
       <c r="F12" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>18</v>
       </c>
@@ -1157,22 +1164,22 @@
         <v>3.7931206080000002</v>
       </c>
       <c r="C13" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E13">
         <v>1.5</v>
       </c>
       <c r="F13" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>20</v>
       </c>
@@ -1180,22 +1187,22 @@
         <v>3.5483870909999999</v>
       </c>
       <c r="C14" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>22</v>
       </c>
@@ -1203,22 +1210,22 @@
         <v>3.3333423249999998</v>
       </c>
       <c r="C15" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="F15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>24</v>
       </c>
@@ -1226,22 +1233,22 @@
         <v>3.142885422</v>
       </c>
       <c r="C16" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G16" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>26</v>
       </c>
@@ -1249,22 +1256,22 @@
         <v>2.9729900489999999</v>
       </c>
       <c r="C17" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E17">
         <v>1</v>
       </c>
       <c r="F17" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G17" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>28</v>
       </c>
@@ -1272,22 +1279,22 @@
         <v>2.8205150190000001</v>
       </c>
       <c r="C18" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D18" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E18">
         <v>1.8</v>
       </c>
       <c r="F18" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G18" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>30</v>
       </c>
@@ -1295,22 +1302,22 @@
         <v>2.6829403420000002</v>
       </c>
       <c r="C19" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E19">
         <v>2.8</v>
       </c>
       <c r="F19" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G19" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>32</v>
       </c>
@@ -1318,22 +1325,22 @@
         <v>2.5581732179999999</v>
       </c>
       <c r="C20" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E20">
         <v>1</v>
       </c>
       <c r="F20" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G20" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>34</v>
       </c>
@@ -1341,22 +1348,22 @@
         <v>2.4444742339999999</v>
       </c>
       <c r="C21" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D21" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E21">
         <v>3.8</v>
       </c>
       <c r="F21" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G21" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>36</v>
       </c>
@@ -1364,22 +1371,22 @@
         <v>2.3404450080000001</v>
       </c>
       <c r="C22" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D22" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E22">
         <v>1</v>
       </c>
       <c r="F22" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G22" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>36</v>
       </c>
@@ -1387,22 +1394,22 @@
         <v>2.4404450080000002</v>
       </c>
       <c r="C23" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E23">
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G23" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>36</v>
       </c>
@@ -1410,22 +1417,22 @@
         <v>7.6439176690000004</v>
       </c>
       <c r="C24" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D24" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E24">
         <v>1</v>
       </c>
       <c r="F24" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G24" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>38</v>
       </c>
@@ -1433,22 +1440,22 @@
         <v>7.7384042050000001</v>
       </c>
       <c r="C25" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D25" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E25">
         <v>4.5999999999999996</v>
       </c>
       <c r="F25" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G25" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>44</v>
       </c>
@@ -1456,22 +1463,22 @@
         <v>7.9801531609999996</v>
       </c>
       <c r="C26" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D26" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E26">
         <v>1.66</v>
       </c>
       <c r="F26" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G26" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>46</v>
       </c>
@@ -1479,22 +1486,22 @@
         <v>8.0493134560000001</v>
       </c>
       <c r="C27" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D27" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E27">
         <v>11.4</v>
       </c>
       <c r="F27" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G27" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>48</v>
       </c>
@@ -1502,22 +1509,22 @@
         <v>8.1137262529999994</v>
       </c>
       <c r="C28" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D28" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E28">
         <v>3.6</v>
       </c>
       <c r="F28" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G28" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>50</v>
       </c>
@@ -1525,22 +1532,22 @@
         <v>8.1738552989999995</v>
       </c>
       <c r="C29" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D29" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E29">
         <v>1</v>
       </c>
       <c r="F29" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G29" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>6</v>
       </c>
@@ -1548,22 +1555,22 @@
         <v>0.99892266200000002</v>
       </c>
       <c r="C30" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D30" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E30">
         <v>1</v>
       </c>
       <c r="F30" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G30" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>2</v>
       </c>
@@ -1571,22 +1578,22 @@
         <v>0.99985338499999998</v>
       </c>
       <c r="C31" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D31" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E31">
         <v>1</v>
       </c>
       <c r="F31" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G31" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>4</v>
       </c>
@@ -1594,22 +1601,22 @@
         <v>0.99947281099999996</v>
       </c>
       <c r="C32" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D32" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E32">
         <v>1</v>
       </c>
       <c r="F32" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G32" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>12</v>
       </c>
@@ -1617,19 +1624,19 @@
         <v>0.99662720900000001</v>
       </c>
       <c r="C33" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D33" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E33">
         <v>8</v>
       </c>
       <c r="F33" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G33" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/cases/story_1/measurements.xlsx
+++ b/cases/story_1/measurements.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\HetaSimulator.jl\cases\story_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75EED362-6453-49EC-A2ED-8ED4675F656A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6974DD34-A018-405F-87B8-68FA44C1F1FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,9 +29,6 @@
   </si>
   <si>
     <t>scope</t>
-  </si>
-  <si>
-    <t>condition</t>
   </si>
   <si>
     <t>ode_</t>
@@ -62,6 +59,9 @@
   </si>
   <si>
     <t>prob.sigma</t>
+  </si>
+  <si>
+    <t>scenario</t>
   </si>
 </sst>
 </file>
@@ -871,7 +871,7 @@
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -891,16 +891,16 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
         <v>12</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
       <c r="G1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -911,19 +911,19 @@
         <v>8.4615393339999994</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -934,19 +934,19 @@
         <v>7.3333338120000002</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E3">
         <v>1.2</v>
       </c>
       <c r="F3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -957,19 +957,19 @@
         <v>6.4705915669999996</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E4">
         <v>2.2000000000000002</v>
       </c>
       <c r="F4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -980,7 +980,7 @@
         <v>6.5705915670000001</v>
       </c>
       <c r="C5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5">
         <v>7</v>
@@ -989,10 +989,10 @@
         <v>1.03</v>
       </c>
       <c r="F5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -1003,19 +1003,19 @@
         <v>5.7894777340000001</v>
       </c>
       <c r="C6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -1026,19 +1026,19 @@
         <v>5.2380919659999998</v>
       </c>
       <c r="C7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -1049,19 +1049,19 @@
         <v>4.7826210590000002</v>
       </c>
       <c r="C8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E8">
         <v>3.7</v>
       </c>
       <c r="F8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -1072,7 +1072,7 @@
         <v>4.400001348</v>
       </c>
       <c r="C9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9">
         <v>4.7</v>
@@ -1081,10 +1081,10 @@
         <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -1095,19 +1095,19 @@
         <v>4.0740805680000003</v>
       </c>
       <c r="C10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -1118,7 +1118,7 @@
         <v>4.1740805679999999</v>
       </c>
       <c r="C11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D11">
         <v>5</v>
@@ -1127,10 +1127,10 @@
         <v>4.5</v>
       </c>
       <c r="F11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -1141,19 +1141,19 @@
         <v>4.004080568</v>
       </c>
       <c r="C12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E12">
         <v>1.004</v>
       </c>
       <c r="F12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -1164,19 +1164,19 @@
         <v>3.7931206080000002</v>
       </c>
       <c r="C13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E13">
         <v>1.5</v>
       </c>
       <c r="F13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -1187,19 +1187,19 @@
         <v>3.5483870909999999</v>
       </c>
       <c r="C14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -1210,19 +1210,19 @@
         <v>3.3333423249999998</v>
       </c>
       <c r="C15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="F15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -1233,19 +1233,19 @@
         <v>3.142885422</v>
       </c>
       <c r="C16" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D16" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -1256,19 +1256,19 @@
         <v>2.9729900489999999</v>
       </c>
       <c r="C17" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D17" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E17">
         <v>1</v>
       </c>
       <c r="F17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
@@ -1279,19 +1279,19 @@
         <v>2.8205150190000001</v>
       </c>
       <c r="C18" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D18" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E18">
         <v>1.8</v>
       </c>
       <c r="F18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -1302,19 +1302,19 @@
         <v>2.6829403420000002</v>
       </c>
       <c r="C19" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D19" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E19">
         <v>2.8</v>
       </c>
       <c r="F19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
@@ -1325,19 +1325,19 @@
         <v>2.5581732179999999</v>
       </c>
       <c r="C20" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D20" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E20">
         <v>1</v>
       </c>
       <c r="F20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
@@ -1348,19 +1348,19 @@
         <v>2.4444742339999999</v>
       </c>
       <c r="C21" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D21" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E21">
         <v>3.8</v>
       </c>
       <c r="F21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -1371,19 +1371,19 @@
         <v>2.3404450080000001</v>
       </c>
       <c r="C22" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D22" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E22">
         <v>1</v>
       </c>
       <c r="F22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
@@ -1394,19 +1394,19 @@
         <v>2.4404450080000002</v>
       </c>
       <c r="C23" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D23" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E23">
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G23" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
@@ -1417,19 +1417,19 @@
         <v>7.6439176690000004</v>
       </c>
       <c r="C24" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E24">
         <v>1</v>
       </c>
       <c r="F24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G24" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
@@ -1440,19 +1440,19 @@
         <v>7.7384042050000001</v>
       </c>
       <c r="C25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E25">
         <v>4.5999999999999996</v>
       </c>
       <c r="F25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G25" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
@@ -1463,19 +1463,19 @@
         <v>7.9801531609999996</v>
       </c>
       <c r="C26" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E26">
         <v>1.66</v>
       </c>
       <c r="F26" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G26" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
@@ -1486,19 +1486,19 @@
         <v>8.0493134560000001</v>
       </c>
       <c r="C27" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E27">
         <v>11.4</v>
       </c>
       <c r="F27" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G27" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
@@ -1509,19 +1509,19 @@
         <v>8.1137262529999994</v>
       </c>
       <c r="C28" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E28">
         <v>3.6</v>
       </c>
       <c r="F28" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
@@ -1532,19 +1532,19 @@
         <v>8.1738552989999995</v>
       </c>
       <c r="C29" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E29">
         <v>1</v>
       </c>
       <c r="F29" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G29" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
@@ -1555,19 +1555,19 @@
         <v>0.99892266200000002</v>
       </c>
       <c r="C30" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E30">
         <v>1</v>
       </c>
       <c r="F30" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
@@ -1578,19 +1578,19 @@
         <v>0.99985338499999998</v>
       </c>
       <c r="C31" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E31">
         <v>1</v>
       </c>
       <c r="F31" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G31" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
@@ -1601,19 +1601,19 @@
         <v>0.99947281099999996</v>
       </c>
       <c r="C32" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E32">
         <v>1</v>
       </c>
       <c r="F32" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G32" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
@@ -1624,19 +1624,19 @@
         <v>0.99662720900000001</v>
       </c>
       <c r="C33" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E33">
         <v>8</v>
       </c>
       <c r="F33" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G33" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
